--- a/QuestionBank.xlsx
+++ b/QuestionBank.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>https://leetcode.com/problems/maximum-xor-for-each-query/</t>
   </si>
@@ -352,13 +352,43 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Kadane</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
+  </si>
+  <si>
+    <t>PrefixSum on Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
+  </si>
+  <si>
+    <t>304. Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/matrix-block-sum/</t>
+  </si>
+  <si>
+    <t>1314. Matrix Block Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +413,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -410,11 +452,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E97"/>
+  <dimension ref="A2:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,326 +995,215 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+    <row r="38" spans="1:5" ht="17.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25">
+      <c r="C39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25">
+      <c r="C47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C57" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>30</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>30</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>30</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>30</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>30</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C80" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>63</v>
       </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1281,13 +1214,10 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
-      </c>
-      <c r="E85" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1298,130 +1228,282 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>63</v>
       </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
       <c r="C87" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>63</v>
       </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>63</v>
       </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>63</v>
       </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
       <c r="C90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17.25">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25">
+      <c r="C91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>96</v>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.25">
+        <v>87</v>
+      </c>
+      <c r="E92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>63</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>101</v>
+      <c r="C93" t="s">
+        <v>73</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="17.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" t="s">
-        <v>104</v>
-      </c>
-      <c r="E94" t="s">
-        <v>107</v>
+      <c r="C94" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>63</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.25">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17.25">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17.25">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.25">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
         <v>105</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D108" t="s">
         <v>106</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.25">
-      <c r="A96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="2" t="s">
+    <row r="109" spans="1:5" ht="17.25">
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17.25">
-      <c r="A97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="2" t="s">
+    <row r="110" spans="1:5" ht="17.25">
+      <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D110" t="s">
         <v>111</v>
       </c>
     </row>

--- a/QuestionBank.xlsx
+++ b/QuestionBank.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA4CFA1-0087-4E7A-ACBC-01CE06462D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
   <si>
     <t>https://leetcode.com/problems/maximum-xor-for-each-query/</t>
   </si>
@@ -120,9 +126,6 @@
     <t>3. sort</t>
   </si>
   <si>
-    <t>4. generateGrammer</t>
-  </si>
-  <si>
     <t>5. printPowerSet</t>
   </si>
   <si>
@@ -382,13 +385,45 @@
   </si>
   <si>
     <t>1314. Matrix Block Sum</t>
+  </si>
+  <si>
+    <t>4. generateGrammer/kth symbol</t>
+  </si>
+  <si>
+    <t>Gray Code</t>
+  </si>
+  <si>
+    <t>TOH</t>
+  </si>
+  <si>
+    <t>1827. Minimum Operations to Make the Array Increasing</t>
+  </si>
+  <si>
+    <t>945. Minimum Increment to Make Array Unique</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>74. Search a 2D Matrix
+240. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/
+https://leetcode.com/problems/search-a-2d-matrix-ii/</t>
+  </si>
+  <si>
+    <t>No diff</t>
+  </si>
+  <si>
+    <t>Peek Element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +462,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,13 +493,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,6 +511,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,9 +597,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,6 +649,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,25 +842,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="56.453125" customWidth="1"/>
+    <col min="4" max="4" width="58.1796875" customWidth="1"/>
+    <col min="5" max="5" width="66.7265625" customWidth="1"/>
+    <col min="6" max="6" width="43.54296875" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -779,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -787,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -795,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -803,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -811,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -819,7 +908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -827,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -835,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -843,673 +932,744 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25">
-      <c r="C29" s="1" t="s">
+    <row r="35" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25">
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="C53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C55" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.25">
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17.25">
-      <c r="A38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.25">
-      <c r="C39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.25">
-      <c r="A46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.25">
-      <c r="C47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" t="s">
         <v>63</v>
       </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
         <v>65</v>
       </c>
-      <c r="D85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="s">
         <v>66</v>
-      </c>
-      <c r="D86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>73</v>
       </c>
       <c r="D93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
       </c>
       <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="D104" t="s">
         <v>83</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E104" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
         <v>76</v>
       </c>
-      <c r="D98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="C106" t="s">
         <v>77</v>
       </c>
-      <c r="D99" t="s">
-        <v>88</v>
-      </c>
-      <c r="E99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" t="s">
         <v>79</v>
       </c>
-      <c r="D101" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17.25">
-      <c r="A104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="2" t="s">
+    <row r="110" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" t="s">
         <v>94</v>
       </c>
-      <c r="D104" t="s">
+    </row>
+    <row r="111" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="17.25">
-      <c r="A105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="D111" t="s">
         <v>96</v>
       </c>
-      <c r="D105" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.25">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="2" t="s">
+    </row>
+    <row r="112" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
         <v>101</v>
       </c>
-      <c r="D106" t="s">
+    </row>
+    <row r="113" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="17.25">
-      <c r="A107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="D113" t="s">
         <v>103</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" t="s">
         <v>104</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" t="s">
-        <v>105</v>
-      </c>
-      <c r="D108" t="s">
-        <v>106</v>
-      </c>
-      <c r="E108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17.25">
-      <c r="A109" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="D115" t="s">
         <v>108</v>
       </c>
-      <c r="D109" t="s">
+    </row>
+    <row r="116" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="17.25">
-      <c r="A110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="D116" t="s">
         <v>110</v>
-      </c>
-      <c r="D110" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1517,24 +1677,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
